--- a/va_facility_data_2025-02-20/Cottonwood VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cottonwood%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cottonwood VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cottonwood%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R722e856087814ff791891f0a5a106527"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3d14a11419304c53844d43408b5794f7"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R26d881b9438345778b9d4d745a057906"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2112eb631224418daf3f0a97b65023b6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3f5b462344c04658b6c3545d5412f998"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3a4f6e55ba584bbe8d2687d31ec1a2cf"/>
   </x:sheets>
 </x:workbook>
 </file>
